--- a/scripts/AntioxidantDefenseGenes/AntioxDefense.xlsx
+++ b/scripts/AntioxidantDefenseGenes/AntioxDefense.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Stephenson\Mouse Work\Maternal MCP230 exposure\qPCR\Quads\cDNA\Post-review analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteph16\Documents\GitHub\ObesityParticulateTreatment\scripts\AntioxidantDefenseGenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Mouse</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Gclm</t>
+  </si>
+  <si>
+    <t>Ucp2</t>
+  </si>
+  <si>
+    <t>Ucp3</t>
   </si>
 </sst>
 </file>
@@ -368,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +404,14 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201</v>
       </c>
@@ -421,8 +433,14 @@
       <c r="G2">
         <v>2.729765888799065</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1.443986051446283</v>
+      </c>
+      <c r="I2">
+        <v>0.12003842953401894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>202</v>
       </c>
@@ -444,8 +462,14 @@
       <c r="G3">
         <v>1.662987388171598</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.82935220096750395</v>
+      </c>
+      <c r="I3">
+        <v>0.20899904489604426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>208</v>
       </c>
@@ -467,8 +491,14 @@
       <c r="G4">
         <v>2.9358479006652942</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3.2830957048003695</v>
+      </c>
+      <c r="I4">
+        <v>0.40516129193378075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>203</v>
       </c>
@@ -490,8 +520,11 @@
       <c r="G5">
         <v>0.49099397537013045</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1.6472468937100353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>204</v>
       </c>
@@ -513,8 +546,14 @@
       <c r="G6">
         <v>1.4987681529056343</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.81510442655970228</v>
+      </c>
+      <c r="I6">
+        <v>0.40236263846101239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>207</v>
       </c>
@@ -536,8 +575,14 @@
       <c r="G7">
         <v>4.7692989853055918</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>3.7452364557597302</v>
+      </c>
+      <c r="I7">
+        <v>0.39408213509934548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>214</v>
       </c>
@@ -559,8 +604,14 @@
       <c r="G8">
         <v>5.0762996311643356</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3.6808955351432706</v>
+      </c>
+      <c r="I8">
+        <v>1.5226330034909059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>250</v>
       </c>
@@ -576,304 +627,393 @@
       <c r="G9">
         <v>9.8408110803976481</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>5.2417800067931557</v>
+      </c>
+      <c r="I9">
+        <v>0.91800139715481377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>2500</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0.83512080171598624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>276</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>0.59473184165615123</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.80470622777315537</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.16965462792233318</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.39299721307200125</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>0.20148959263077151</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="H11">
+        <v>0.86158008381504336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>277</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>0.83237827940135123</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1.0841272495689249</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.67393095122332591</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.69139927063775763</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.47099290337744043</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H12">
+        <v>1.1096131622969339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>278</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>1.1214079666631882</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1.7249255601299092</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1.6365670268217014</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1.9219768868902418</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>1.8839716135097613</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="H13">
+        <v>2.5492216284270843</v>
+      </c>
+      <c r="I13">
+        <v>0.63137465544857885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>279</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>1.1730879852897249</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.58907943876051982</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.1492340873107532</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.47060579362830846</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>1.0236888162052613</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="H14">
+        <v>0.42192451104255124</v>
+      </c>
+      <c r="I14">
+        <v>0.89289860067401827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>281</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>0.88289343714218005</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>0.67902382623918811</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.85896585596107011</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.7083778401718156</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>1.3002393557170817</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="H15">
+        <v>0.72449960393406643</v>
+      </c>
+      <c r="I15">
+        <v>0.33834530031389087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>290</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>1.5586653647415147</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.2070907165808451</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>2.042976614906614</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.61241901666198639</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>0.91305725018486661</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="H16">
+        <v>0.99313159928742256</v>
+      </c>
+      <c r="I16">
+        <v>0.85356223640033568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>291</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>0.8040244194817221</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>1.0692017493573105</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.92702020594638346</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.27789099435062736</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0.69196800013881632</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="H17">
+        <v>0.2124296140496324</v>
+      </c>
+      <c r="I17">
+        <v>0.69090930859305077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>292</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>0.74758587921578123</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.39135074682851784</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.37001936726350287</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.31921292807905499</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.32393521732135988</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="H18">
+        <v>0.1731455009948227</v>
+      </c>
+      <c r="I18">
+        <v>1.3580798004238133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>293</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>0.63301483881438203</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.40374998271000795</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.31222818697097787</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.38893230786933131</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.23631403614386301</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="H19">
+        <v>0.30567210504475412</v>
+      </c>
+      <c r="I19">
+        <v>0.35393792310794098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>294</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>0.75278575022036365</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.29352068936445019</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.2923305863277153</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.22493670242573471</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.16709925744688886</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="H20">
+        <v>3.6907473875207417E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.3859720420326932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>297</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>0.78203832944918239</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.51282343723913426</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.34048725224790533</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.27123043651989792</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.26039564538037296</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="H21">
+        <v>5.8926353678156636E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.6662077050518229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>298</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>1.2314100295163957</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1.1419774027127889</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.60738058155777841</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>1.4871920742744589</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>0.95183092100546385</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="H22">
+        <v>1.068107464019588</v>
+      </c>
+      <c r="I22">
+        <v>2.4564387291711571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>300</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>1.885975878408064</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>3.0984229727352472</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>3.6192046555399386</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>5.2328285354187827</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>4.5750173909380507</v>
+      </c>
+      <c r="H23">
+        <v>4.4848408995347366</v>
+      </c>
+      <c r="I23">
+        <v>1.3722736987826982</v>
       </c>
     </row>
   </sheetData>
